--- a/Projects/SANOFIUA/Data/Template.xlsx
+++ b/Projects/SANOFIUA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,11 +17,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$I$2:$J$16</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$I$2:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
@@ -38,24 +37,28 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$5:$H$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">primary_brand_blocking!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
@@ -83,6 +86,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -103,25 +108,24 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Solomon, Bonver /AE/EXT:
+          <t>Solomon, Bonver /AE/EXT:
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">to confirm what skus are included on brand block</t>
+          <t>to confirm what skus are included on brand block</t>
         </r>
       </text>
     </comment>
@@ -139,25 +143,24 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Solomon, Bonver /AE/EXT:
+          <t>Solomon, Bonver /AE/EXT:
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">to confirm what skus are included on brand block</t>
+          <t>to confirm what skus are included on brand block</t>
         </r>
       </text>
     </comment>
@@ -166,361 +169,361 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="117">
   <si>
-    <t xml:space="preserve">KPI Name</t>
+    <t>KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Group</t>
+    <t>KPI Group</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Type</t>
+    <t>KPI Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Tested Group</t>
+    <t>Tested Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Group</t>
+    <t>Template Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheet</t>
+    <t>Sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">SCORE</t>
+    <t>SCORE</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM Availability Primary</t>
+    <t>Shelf Location Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Shelf</t>
+    <t>Primary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Availability Per SKU</t>
+    <t>Shelf Level Per Brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+    <t>Primary Shelf_Location</t>
   </si>
   <si>
-    <t xml:space="preserve">numeric</t>
+    <t>numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Minimum Facings Primary</t>
+    <t>POSM Availability Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+    <t>Product Availability Per SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+    <t>Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary Shelf</t>
+    <t>Product Minimum Facings Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocked Together</t>
+    <t>Primary&amp;Secondary_Facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocked Together Per Brand</t>
+    <t>Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary_Brand_Blocking</t>
+    <t>Secondary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM Availability Secondary</t>
+    <t>Blocked Together</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL Compliance</t>
+    <t>Blocked Together Per Brand</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL</t>
+    <t>Primary_Brand_Blocking</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfect Store</t>
+    <t>POSM Availability Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Shelf Compliance</t>
+    <t>MSL Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary Shelf Compliance</t>
+    <t>MSL</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfect Store Compliance</t>
+    <t>Perfect Store</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum of KPIs in Group</t>
+    <t>Primary Shelf Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">store type</t>
+    <t>Secondary Shelf Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Name</t>
+    <t>Perfect Store Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Product EAN Code</t>
+    <t>Sum of KPIs in Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand</t>
+    <t>store type</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
+    <t>Product Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Points</t>
+    <t>Product EAN Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Non Contracted</t>
+    <t>Brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Contracted A</t>
+    <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Contracted B</t>
+    <t>Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Contracted C</t>
+    <t>Non-Contracted</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentiale forte N caps №30</t>
+    <t>Contracted A</t>
   </si>
   <si>
-    <t xml:space="preserve">Essetiale</t>
+    <t>Contracted B</t>
   </si>
   <si>
-    <t xml:space="preserve">DH</t>
+    <t>Contracted C</t>
   </si>
   <si>
-    <t xml:space="preserve">Festal Neo 10 000  tabs №20</t>
+    <t>Essentiale forte N caps №30</t>
   </si>
   <si>
-    <t xml:space="preserve">Festal </t>
+    <t>Essetiale</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina oral susp. 5 ml, vial №10</t>
+    <t>DH</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina</t>
+    <t>Festal Neo 10 000  tabs №20</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina forte oral susp. 5 ml, vial №10</t>
+    <t>Festal </t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox 2DC tabs №40</t>
+    <t>Enterogermina oral susp. 5 ml, vial №10</t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox</t>
+    <t>Enterogermina</t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox susp. 15 ml, sach. №30</t>
+    <t>Enterogermina forte oral susp. 5 ml, vial №10</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan® Syrup 15mg/5ml 100ml woodb.№1</t>
+    <t>Maalox 2DC tabs №40</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan</t>
+    <t>Maalox</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough </t>
+    <t>Maalox susp. 15 ml, sach. №30</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
+    <t>Lasolvan® Syrup 15mg/5ml 100ml woodb.№1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan® tablets 30mg, blist.№50(10х5)</t>
+    <t>Lasolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinosol nasal drops 10 ml, vial №1</t>
+    <t>Cough </t>
   </si>
   <si>
-    <t xml:space="preserve">Pinosol</t>
+    <t>Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne-B6 tabs №50</t>
+    <t>Lasolvan® tablets 30mg, blist.№50(10х5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne B6</t>
+    <t>Pinosol nasal drops 10 ml, vial №1</t>
   </si>
   <si>
-    <t xml:space="preserve">VMS</t>
+    <t>Pinosol</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne-B6 Antistress tabs #60</t>
+    <t>Magne-B6 tabs №50</t>
   </si>
   <si>
-    <t xml:space="preserve">No-spa tabs 40 mg №24</t>
+    <t>Magne B6</t>
   </si>
   <si>
-    <t xml:space="preserve">NoSpa</t>
+    <t>VMS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain</t>
+    <t>Magne-B6 Antistress tabs #60</t>
   </si>
   <si>
-    <t xml:space="preserve">No-spa tabs 40 mg №100</t>
+    <t>No-spa tabs 40 mg №24</t>
   </si>
   <si>
-    <t xml:space="preserve">SKUs</t>
+    <t>NoSpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-Contracted</t>
+    <t>Pain</t>
   </si>
   <si>
-    <t xml:space="preserve">Contracted</t>
+    <t>No-spa tabs 40 mg №100</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelf Location Compliance</t>
+    <t>SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Ignore empty</t>
+    <t>Enterogermina caps № 12</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina oral susp. 5 ml, vial №10, Enterogermina forte oral susp. 5 ml, vial №10, Enterogermina caps № 12</t>
+    <t>Maalox susp. 250 ml, bottle №1</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910022428, 3582910078357, 3582910054894</t>
+    <t>Pinosol nasal spray 10 ml, vial №1</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne-B6 tabs №50, Magne-B6 Antistress tabs #60, Magne-B6 oral sol. 10 ml, amp. №10</t>
+    <t>Magne-B6 oral sol. 10 ml, amp. №10</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910071440, 3582910071464,3582910019428</t>
+    <t>No-spa Comfort tabs 40 mg №24</t>
   </si>
   <si>
-    <t xml:space="preserve">No-spa tabs 40 mg №24, No-spa tabs 40 mg №100, No-spa Comfort tabs 40 mg №24, No-spa forte tabs 80 mg №24,No-spa tabs 40 mg №60</t>
+    <t>No-spa tabs 40 mg №60</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910061557, 5997086103280, 3582910078326,3582910066958,5997086105055</t>
+    <t>No-spa forte tabs 80 mg №24</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1, Lasolvan® woodb. syrup 100 ml (15 mg/ 5 ml), bottle №1, Lasolvan® tabs 30 mg №50, Lasolvan® MAX caps 75 mg №10</t>
+    <t>Lasolvan® MAX caps 75 mg №10</t>
   </si>
   <si>
-    <t xml:space="preserve">9006968005935,9006968005911, 9006968002156, 9006968010373</t>
+    <t>Lasolvan® woodb. syrup 200 ml (15 mg/ 5 ml), bottle №1</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Enterogermina Shelf Talker/Strip</t>
+    <t>Ignore empty</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-CC-01</t>
+    <t>Enterogermina oral susp. 5 ml, vial №10, Enterogermina forte oral susp. 5 ml, vial №10, Enterogermina caps № 12</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Maalox Shelf Talker/Strip</t>
+    <t>3582910022428, 3582910078357, 3582910054894</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-02</t>
+    <t>Magne-B6 tabs №50, Magne-B6 Antistress tabs #60, Magne-B6 oral sol. 10 ml, amp. №10</t>
   </si>
   <si>
-    <t xml:space="preserve">UK NoSpa Shelf Talker/Strip</t>
+    <t>3582910071440, 3582910071464, 3582910019428</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-03</t>
+    <t>No-spa tabs 40 mg №24, No-spa tabs 40 mg №100, No-spa Comfort tabs 40 mg №24, No-spa forte tabs 80 mg №24,No-spa tabs 40 mg №60</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Festal Shelf Talker/Strip</t>
+    <t>3582910061557, 5997086103280, 3582910078326, 3582910066958, 5997086105055</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-04</t>
+    <t>Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1,Lasolvan® woodb. syrup 100 ml (15 mg/ 5 ml), bottle №1,Lasolvan® tablets 30mg, blist.№50(10х5), Lasolvan® MAX caps 75 mg №10Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
   </si>
   <si>
-    <t xml:space="preserve">Festal</t>
+    <t>9006968005935, 9006968005911, 9006968002156, 9006968010373, 9006968005935</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Magne B6 Shelf Talker/Strip</t>
+    <t>UK Enterogermina Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-05</t>
+    <t>UK-CC-01</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Pinosol Shelf Talker/Strip</t>
+    <t>UK Maalox Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-06</t>
+    <t>UK-STS-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinosol </t>
+    <t>UK NoSpa Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">C&amp;C</t>
+    <t>UK-STS-03</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Lasolvan Shelf Talker/Strip</t>
+    <t>UK Festal Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-07</t>
+    <t>UK-STS-04</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Essentiale Shelf Talker/Strip</t>
+    <t>Festal</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-08</t>
+    <t>UK Magne B6 Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentiale </t>
+    <t>UK-STS-05</t>
   </si>
   <si>
-    <t xml:space="preserve">UK NoSpa product dispenser</t>
+    <t>UK Pinosol Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-PD-01</t>
+    <t>UK-STS-06</t>
   </si>
   <si>
-    <t xml:space="preserve">UK NoSpa product poster with
+    <t>Pinosol </t>
+  </si>
+  <si>
+    <t>C&amp;C</t>
+  </si>
+  <si>
+    <t>UK Lasolvan Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t>UK-STS-07</t>
+  </si>
+  <si>
+    <t>UK Essentiale Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t>UK-STS-08</t>
+  </si>
+  <si>
+    <t>Essentiale </t>
+  </si>
+  <si>
+    <t>UK NoSpa product dispenser</t>
+  </si>
+  <si>
+    <t>UK-PD-01</t>
+  </si>
+  <si>
+    <t>UK NoSpa product poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-PD-02</t>
+    <t>UK-PD-02</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Essentiale Shelf Talker/Strip poster with
+    <t>UK Essentiale Shelf Talker/Strip poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-09</t>
+    <t>UK-STS-09</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Festal Shelf Talker/Strip poster with
+    <t>UK Festal Shelf Talker/Strip poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-STS-10</t>
+    <t>UK-STS-10</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Enterogermina Shelf Talker/Strip poster with
+    <t>UK Enterogermina Shelf Talker/Strip poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-CC-02</t>
+    <t>UK-CC-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina caps № 12</t>
+    <t>Magne B7</t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox susp. 250 ml, bottle №1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinosol nasal spray 10 ml, vial №1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magne-B6 oral sol. 10 ml, amp. №10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magne B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-spa tabs 40 mg №60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-spa Comfort tabs 40 mg №24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-spa forte tabs 80 mg №24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan® MAX caps 75 mg №10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan® woodb. syrup 200 ml (15 mg/ 5 ml), bottle №1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No-spa tabs 40 mg №24</t>
+    <t> No-spa tabs 40 mg №24</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0000"/>
@@ -564,20 +567,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -645,18 +634,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -667,8 +650,8 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -676,14 +659,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -696,16 +671,44 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -784,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -830,13 +833,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -994,12 +990,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1020,7 +1016,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1032,30 +1028,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1064,7 +1036,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,10 +1052,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1092,23 +1060,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,103 +1084,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1220,167 +1188,227 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1469,30 +1497,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3765182186235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2348178137652"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1547,170 +1571,190 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="15" t="s">
-        <v>15</v>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="19" t="s">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="19" t="s">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1731,37 +1775,37 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="13.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49.2186234817814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="28" width="14.4696356275304"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="28" width="16.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="28" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="21" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
@@ -2777,36 +2821,36 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="G2" s="34" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -3824,32 +3868,32 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="44" t="n">
+      <c r="A3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="37" t="n">
         <v>4030113617730</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="48" t="n">
+      <c r="D3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0"/>
@@ -4868,32 +4912,32 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="44" t="n">
+      <c r="A4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="37" t="n">
         <v>3582910080176</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="53" t="n">
+      <c r="D4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="46" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="0"/>
@@ -5911,363 +5955,363 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="49" t="s">
+    <row r="5" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="37" t="n">
+        <v>3582910022428</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="44" t="n">
-        <v>3582910022428</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="53" t="n">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="44" t="n">
+      <c r="A6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="37" t="n">
         <v>3582910078357</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52" t="n">
+      <c r="D6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="53" t="n">
+      <c r="H6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="44" t="n">
+      <c r="A7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="37" t="n">
         <v>3587080002768</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="52" t="n">
+      <c r="D7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="53" t="n">
+      <c r="H7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="44" t="n">
+      <c r="A8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="37" t="n">
         <v>3582910067344</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52" t="n">
+      <c r="D8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="53" t="n">
+      <c r="H8" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="44" t="n">
+      <c r="A9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="37" t="n">
         <v>9006968005911</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="53" t="n">
+      <c r="D9" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="44" t="n">
+      <c r="A10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="37" t="n">
         <v>9006968005935</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="52" t="n">
+      <c r="D10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="53" t="n">
+      <c r="H10" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="37" t="n">
+        <v>9006968002156</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="44" t="n">
-        <v>9006968002156</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="53" t="n">
+      <c r="E11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="37" t="n">
+        <v>8584005040602</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="44" t="n">
-        <v>8584005040602</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="53" t="n">
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="44" t="n">
+      <c r="A13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="37" t="n">
         <v>3582910071440</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="53" t="n">
+      <c r="D13" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="44" t="n">
+      <c r="A14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="37" t="n">
         <v>3582910071464</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="53" t="n">
+      <c r="D14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="44" t="n">
+      <c r="A15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="37" t="n">
         <v>3582910061557</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="53" t="n">
+      <c r="D15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="44" t="n">
+      <c r="A16" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="37" t="n">
         <v>3582910078326</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="53" t="n">
+      <c r="D16" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,229 +6337,690 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="40.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="21" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="0"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="61" t="s">
+      <c r="C16" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="D16" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="59" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="59" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="59" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="59" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="59" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="59" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G17"/>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6524,7 +7029,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6537,36 +7041,35 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="66" width="61.4777327935223"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="28" width="11.8461538461538"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="28" width="11.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="28" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="21" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="21" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="33"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="26"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -7583,36 +8086,36 @@
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="72" t="s">
+      <c r="E2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -8628,33 +9131,35 @@
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>39</v>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="74" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="68" t="n">
         <v>4030113617730</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="64" t="n">
+      <c r="F3" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="65" t="n">
+      <c r="H3" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0"/>
@@ -9671,65 +10176,69 @@
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
     </row>
-    <row r="4" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>39</v>
+    <row r="4" s="47" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="74" t="n">
+        <v>43</v>
+      </c>
+      <c r="E4" s="68" t="n">
         <v>3582910080176</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="64" t="n">
+      <c r="F4" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMI4" s="28"/>
+      <c r="H4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMI4" s="21"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>39</v>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="79" t="n">
+      <c r="H5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="74" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="0"/>
@@ -10746,93 +11255,95 @@
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>57</v>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="78" t="n">
+        <v>79</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="79" t="n">
+      <c r="H6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="74" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="78" t="n">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="79" t="n">
+      <c r="H7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="74" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="64" t="n">
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="65" t="n">
+      <c r="H8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10871,440 +11382,440 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="34.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="14.4453441295547"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="14.331983805668"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="28" width="15.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="28" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="77" width="9.31983805668016"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="82"/>
       <c r="H1" s="82"/>
       <c r="I1" s="82"/>
     </row>
-    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="C2" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="E2" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>36</v>
       </c>
+      <c r="G2" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="57" t="n">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="57" t="n">
+      <c r="G3" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="57" t="n">
+      <c r="I3" s="87" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="85" t="s">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="57" t="n">
+      <c r="E15" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="57" t="n">
+      <c r="G15" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="86" t="n">
+      <c r="I15" s="88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11330,1083 +11841,69 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49.2186234817814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="28" width="15.3805668016194"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="28" width="19.1093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="28" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="77" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="77" width="9.31983805668016"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+    <row r="1" s="93" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
-    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="C2" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="D2" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="E2" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="F2" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="G2" s="84" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -13423,35 +12920,35 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="81" t="n">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="98" t="n">
         <v>4030113617730</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="93" t="n">
+      <c r="D3" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="100" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="92" t="n">
+      <c r="H3" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="I3" s="92" t="n">
+      <c r="I3" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="92" t="n">
+      <c r="J3" s="99" t="n">
         <v>6</v>
       </c>
       <c r="K3" s="0"/>
@@ -14469,35 +13966,35 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="81" t="n">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="98" t="n">
         <v>3582910080176</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="93" t="n">
+      <c r="D4" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="100" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="92" t="n">
+      <c r="H4" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="92" t="n">
+      <c r="I4" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="92" t="n">
+      <c r="J4" s="99" t="n">
         <v>4</v>
       </c>
       <c r="K4" s="0"/>
@@ -15515,803 +15012,803 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="50" t="s">
+    <row r="5" s="101" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="98" t="n">
+        <v>3582910022428</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="81" t="n">
-        <v>3582910022428</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="F5" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="101" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="98" t="n">
+        <v>3582910054894</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="98" t="n">
+        <v>3582910078357</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="98" t="n">
+        <v>3582910071242</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="98" t="n">
+        <v>3587080002751</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="98" t="n">
+        <v>3582910067344</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="98" t="n">
+        <v>8584005703392</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="98" t="n">
+        <v>8584005040602</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="98" t="n">
+        <v>3582910071440</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="98" t="n">
+        <v>3582910019428</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="98" t="n">
+        <v>3582910071464</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="98" t="n">
+        <v>5997086105055</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="98" t="n">
+        <v>3582910078326</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="98" t="n">
+        <v>3582910066958</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="98" t="n">
+        <v>3582910061557</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="98" t="n">
+        <v>5997086103280</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="98" t="n">
+        <v>9006968002156</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="98" t="n">
+        <v>9006968010373</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="98" t="n">
+        <v>9006968005911</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="98" t="n">
+        <v>9006968005935</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="103" t="n">
+        <v>9006968005928</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="92" t="n">
-        <v>1</v>
+      <c r="C26" s="103" t="n">
+        <v>3582910080176</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" s="99" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="81" t="n">
-        <v>3582910054894</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="92" t="n">
-        <v>2</v>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="103" t="n">
+        <v>3582910078357</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" s="99" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="81" t="n">
-        <v>3582910078357</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="92" t="n">
-        <v>1</v>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="103" t="n">
+        <v>5997086105055</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" s="99" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="81" t="n">
-        <v>3582910071242</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="81" t="n">
-        <v>3587080002751</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="93" t="n">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="103" t="n">
+        <v>3582910061557</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="81" t="n">
-        <v>3582910067344</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="81" t="n">
-        <v>8584005703392</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="92" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="81" t="n">
-        <v>8584005040602</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="92" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="81" t="n">
-        <v>3582910071440</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="81" t="n">
-        <v>3582910019428</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="93" t="n">
+      <c r="H29" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="81" t="n">
-        <v>3582910071464</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="81" t="n">
-        <v>5997086105055</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="81" t="n">
-        <v>3582910078326</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="81" t="n">
-        <v>3582910066958</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="81" t="n">
-        <v>3582910061557</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="93" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" s="93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" s="93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="81" t="n">
-        <v>5997086103280</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="81" t="n">
-        <v>9006968002156</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="81" t="n">
-        <v>9006968010373</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="81" t="n">
-        <v>9006968005911</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="81" t="n">
-        <v>9006968005935</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="95" t="n">
-        <v>9006968005928</v>
-      </c>
-      <c r="D25" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" s="93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="95" t="n">
-        <v>3582910080176</v>
-      </c>
-      <c r="D26" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="95" t="n">
-        <v>3582910078357</v>
-      </c>
-      <c r="D27" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="95" t="n">
-        <v>5997086105055</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="95" t="n">
-        <v>3582910061557</v>
-      </c>
-      <c r="D29" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="92" t="n">
+      <c r="I29" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="J29" s="92" t="n">
+      <c r="J29" s="99" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/SANOFIUA/Data/Template.xlsx
+++ b/Projects/SANOFIUA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,12 +16,12 @@
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$I$2:$J$16</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$I$2:$J$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$I$2:$J$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$I$2:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'primary shelf_location'!#ref!</definedName>
@@ -68,26 +69,27 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -114,18 +116,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Solomon, Bonver /AE/EXT:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>to confirm what skus are included on brand block</t>
+          <t xml:space="preserve">Solomon, Bonver /AE/EXT:
+to confirm what skus are included on brand block</t>
         </r>
       </text>
     </comment>
@@ -149,18 +141,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Solomon, Bonver /AE/EXT:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>to confirm what skus are included on brand block</t>
+          <t xml:space="preserve">Solomon, Bonver /AE/EXT:
+to confirm what skus are included on brand block</t>
         </r>
       </text>
     </comment>
@@ -169,361 +151,355 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="115">
   <si>
-    <t>KPI Name</t>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t>KPI Group</t>
+    <t xml:space="preserve">KPI Group</t>
   </si>
   <si>
-    <t>KPI Type</t>
+    <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t>Tested Group</t>
+    <t xml:space="preserve">Tested Group</t>
   </si>
   <si>
-    <t>Template Group</t>
+    <t xml:space="preserve">Template Group</t>
   </si>
   <si>
-    <t>Sheet</t>
+    <t xml:space="preserve">Sheet</t>
   </si>
   <si>
-    <t>SCORE</t>
+    <t xml:space="preserve">SCORE</t>
   </si>
   <si>
-    <t>Shelf Location Compliance</t>
+    <t xml:space="preserve">Shelf Location Compliance</t>
   </si>
   <si>
-    <t>Primary Shelf</t>
+    <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t>Shelf Level Per Brand</t>
+    <t xml:space="preserve">Shelf Level Per Brand</t>
   </si>
   <si>
-    <t>Primary Shelf_Location</t>
+    <t xml:space="preserve">Primary Shelf_Location</t>
   </si>
   <si>
-    <t>numeric</t>
+    <t xml:space="preserve">numeric</t>
   </si>
   <si>
-    <t>POSM Availability Primary</t>
+    <t xml:space="preserve">POSM Availability Primary</t>
   </si>
   <si>
-    <t>Product Availability Per SKU</t>
+    <t xml:space="preserve">Product Availability Per SKU</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_POSM</t>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t>Product Minimum Facings Primary</t>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_Facings</t>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
   </si>
   <si>
-    <t>Product Minimum Facings Secondary</t>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t>Secondary Shelf</t>
+    <t xml:space="preserve">Secondary Shelf</t>
   </si>
   <si>
-    <t>Blocked Together</t>
+    <t xml:space="preserve">Blocked Together</t>
   </si>
   <si>
-    <t>Blocked Together Per Brand</t>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
   </si>
   <si>
-    <t>Primary_Brand_Blocking</t>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
   </si>
   <si>
-    <t>POSM Availability Secondary</t>
+    <t xml:space="preserve">POSM Availability Secondary</t>
   </si>
   <si>
-    <t>MSL Compliance</t>
+    <t xml:space="preserve">MSL Compliance</t>
   </si>
   <si>
-    <t>MSL</t>
+    <t xml:space="preserve">MSL</t>
   </si>
   <si>
-    <t>Perfect Store</t>
+    <t xml:space="preserve">Perfect Store</t>
   </si>
   <si>
-    <t>Primary Shelf Compliance</t>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
   </si>
   <si>
-    <t>Secondary Shelf Compliance</t>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
   </si>
   <si>
-    <t>Perfect Store Compliance</t>
+    <t xml:space="preserve">Perfect Store Compliance</t>
   </si>
   <si>
-    <t>Sum of KPIs in Group</t>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
   </si>
   <si>
-    <t>store type</t>
+    <t xml:space="preserve">store type</t>
   </si>
   <si>
-    <t>Product Name</t>
+    <t xml:space="preserve">Product Name</t>
   </si>
   <si>
-    <t>Product EAN Code</t>
+    <t xml:space="preserve">Product EAN Code</t>
   </si>
   <si>
-    <t>Brand</t>
+    <t xml:space="preserve">Brand</t>
   </si>
   <si>
-    <t>Category</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t>Points</t>
+    <t xml:space="preserve">Points</t>
   </si>
   <si>
-    <t>Non-Contracted</t>
+    <t xml:space="preserve">Non-Contracted</t>
   </si>
   <si>
-    <t>Contracted A</t>
+    <t xml:space="preserve">Contracted A</t>
   </si>
   <si>
-    <t>Contracted B</t>
+    <t xml:space="preserve">Contracted B</t>
   </si>
   <si>
-    <t>Contracted C</t>
+    <t xml:space="preserve">Contracted C</t>
   </si>
   <si>
-    <t>Essentiale forte N caps №30</t>
+    <t xml:space="preserve">Essentiale forte N caps №30</t>
   </si>
   <si>
-    <t>Essetiale</t>
+    <t xml:space="preserve">Essetiale</t>
   </si>
   <si>
-    <t>DH</t>
+    <t xml:space="preserve">DH</t>
   </si>
   <si>
-    <t>Festal Neo 10 000  tabs №20</t>
+    <t xml:space="preserve">Festal Neo 10 000  tabs №20</t>
   </si>
   <si>
-    <t>Festal </t>
+    <t xml:space="preserve">Festal </t>
   </si>
   <si>
-    <t>Enterogermina oral susp. 5 ml, vial №10</t>
+    <t xml:space="preserve">Enterogermina oral susp. 5 ml, vial №10</t>
   </si>
   <si>
-    <t>Enterogermina</t>
+    <t xml:space="preserve">Enterogermina</t>
   </si>
   <si>
-    <t>Enterogermina forte oral susp. 5 ml, vial №10</t>
+    <t xml:space="preserve">Enterogermina forte oral susp. 5 ml, vial №10</t>
   </si>
   <si>
-    <t>Maalox 2DC tabs №40</t>
+    <t xml:space="preserve">Maalox 2DC tabs №40</t>
   </si>
   <si>
-    <t>Maalox</t>
+    <t xml:space="preserve">Maalox</t>
   </si>
   <si>
-    <t>Maalox susp. 15 ml, sach. №30</t>
+    <t xml:space="preserve">Maalox susp. 15 ml, sach. №30</t>
   </si>
   <si>
-    <t>Lasolvan® Syrup 15mg/5ml 100ml woodb.№1</t>
+    <t xml:space="preserve">Lasolvan® Syrup 15mg/5ml 100ml woodb.№1</t>
   </si>
   <si>
-    <t>Lasolvan</t>
+    <t xml:space="preserve">Lasolvan</t>
   </si>
   <si>
-    <t>Cough </t>
+    <t xml:space="preserve">Cough </t>
   </si>
   <si>
-    <t>Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
+    <t xml:space="preserve">Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
   </si>
   <si>
-    <t>Lasolvan® tablets 30mg, blist.№50(10х5)</t>
+    <t xml:space="preserve">Lasolvan® tablets 30mg, blist.№50(10х5)</t>
   </si>
   <si>
-    <t>Pinosol nasal drops 10 ml, vial №1</t>
+    <t xml:space="preserve">Pinosol nasal drops 10 ml, vial №1</t>
   </si>
   <si>
-    <t>Pinosol</t>
+    <t xml:space="preserve">Pinosol</t>
   </si>
   <si>
-    <t>Magne-B6 tabs №50</t>
+    <t xml:space="preserve">Magne-B6 tabs №50</t>
   </si>
   <si>
-    <t>Magne B6</t>
+    <t xml:space="preserve">Magne B6</t>
   </si>
   <si>
-    <t>VMS</t>
+    <t xml:space="preserve">VMS</t>
   </si>
   <si>
-    <t>Magne-B6 Antistress tabs #60</t>
+    <t xml:space="preserve">Magne-B6 Antistress tabs #60</t>
   </si>
   <si>
-    <t>No-spa tabs 40 mg №24</t>
+    <t xml:space="preserve">No-spa tabs 40 mg №24</t>
   </si>
   <si>
-    <t>NoSpa</t>
+    <t xml:space="preserve">NoSpa</t>
   </si>
   <si>
-    <t>Pain</t>
+    <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t>No-spa tabs 40 mg №100</t>
+    <t xml:space="preserve">No-spa tabs 40 mg №100</t>
   </si>
   <si>
-    <t>SKUs</t>
+    <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t>Enterogermina caps № 12</t>
+    <t xml:space="preserve">Enterogermina caps № 12</t>
   </si>
   <si>
-    <t>Maalox susp. 250 ml, bottle №1</t>
+    <t xml:space="preserve">Maalox susp. 250 ml, bottle №1</t>
   </si>
   <si>
-    <t>Pinosol nasal spray 10 ml, vial №1</t>
+    <t xml:space="preserve">Pinosol nasal spray 10 ml, vial №1</t>
   </si>
   <si>
-    <t>Magne-B6 oral sol. 10 ml, amp. №10</t>
+    <t xml:space="preserve">Magne-B6 oral sol. 10 ml, amp. №10</t>
   </si>
   <si>
-    <t>No-spa Comfort tabs 40 mg №24</t>
+    <t xml:space="preserve">No-spa Comfort tabs 40 mg №24</t>
   </si>
   <si>
-    <t>No-spa tabs 40 mg №60</t>
+    <t xml:space="preserve">No-spa tabs 40 mg №60</t>
   </si>
   <si>
-    <t>No-spa forte tabs 80 mg №24</t>
+    <t xml:space="preserve">No-spa forte tabs 80 mg №24</t>
   </si>
   <si>
-    <t>Lasolvan® MAX caps 75 mg №10</t>
+    <t xml:space="preserve">Lasolvan® MAX caps 75 mg №10</t>
   </si>
   <si>
-    <t>Lasolvan® woodb. syrup 200 ml (15 mg/ 5 ml), bottle №1</t>
+    <t xml:space="preserve">Lasolvan® woodb. syrup 200 ml (15 mg/ 5 ml), bottle №1</t>
   </si>
   <si>
-    <t>Ignore empty</t>
+    <t xml:space="preserve">Ignore empty</t>
   </si>
   <si>
-    <t>Enterogermina oral susp. 5 ml, vial №10, Enterogermina forte oral susp. 5 ml, vial №10, Enterogermina caps № 12</t>
+    <t xml:space="preserve">Enterogermina oral susp. 5 ml, vial №10, Enterogermina forte oral susp. 5 ml, vial №10, Enterogermina caps № 12</t>
   </si>
   <si>
-    <t>3582910022428, 3582910078357, 3582910054894</t>
+    <t xml:space="preserve">3582910022428, 3582910078357, 3582910054894</t>
   </si>
   <si>
-    <t>Magne-B6 tabs №50, Magne-B6 Antistress tabs #60, Magne-B6 oral sol. 10 ml, amp. №10</t>
+    <t xml:space="preserve">Magne-B6 tabs №50, Magne-B6 Antistress tabs #60, Magne-B6 oral sol. 10 ml, amp. №10</t>
   </si>
   <si>
-    <t>3582910071440, 3582910071464, 3582910019428</t>
+    <t xml:space="preserve">3582910071440, 3582910071464, 3582910019428</t>
   </si>
   <si>
-    <t>No-spa tabs 40 mg №24, No-spa tabs 40 mg №100, No-spa Comfort tabs 40 mg №24, No-spa forte tabs 80 mg №24,No-spa tabs 40 mg №60</t>
+    <t xml:space="preserve">No-spa tabs 40 mg №24, No-spa tabs 40 mg №100, No-spa Comfort tabs 40 mg №24, No-spa forte tabs 80 mg №24,No-spa tabs 40 mg №60</t>
   </si>
   <si>
-    <t>3582910061557, 5997086103280, 3582910078326, 3582910066958, 5997086105055</t>
+    <t xml:space="preserve">3582910061557, 5997086103280, 3582910078326, 3582910066958, 5997086105055</t>
   </si>
   <si>
-    <t>Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1,Lasolvan® woodb. syrup 100 ml (15 mg/ 5 ml), bottle №1,Lasolvan® tablets 30mg, blist.№50(10х5), Lasolvan® MAX caps 75 mg №10Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
+    <t xml:space="preserve">Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1,Lasolvan® woodb. syrup 100 ml (15 mg/ 5 ml), bottle №1,Lasolvan® tablets 30mg, blist.№50(10х5), Lasolvan® MAX caps 75 mg №10Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1</t>
   </si>
   <si>
-    <t>9006968005935, 9006968005911, 9006968002156, 9006968010373, 9006968005935</t>
+    <t xml:space="preserve">9006968005935, 9006968005911, 9006968002156, 9006968010373, 9006968005935</t>
   </si>
   <si>
-    <t>UK Enterogermina Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Enterogermina Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-CC-01</t>
+    <t xml:space="preserve">UK-CC-01</t>
   </si>
   <si>
-    <t>UK Maalox Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Maalox Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-02</t>
+    <t xml:space="preserve">UK-STS-02</t>
   </si>
   <si>
-    <t>UK NoSpa Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK NoSpa Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-03</t>
+    <t xml:space="preserve">UK-STS-03</t>
   </si>
   <si>
-    <t>UK Festal Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Festal Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-04</t>
+    <t xml:space="preserve">UK-STS-04</t>
   </si>
   <si>
-    <t>Festal</t>
+    <t xml:space="preserve">Festal</t>
   </si>
   <si>
-    <t>UK Magne B6 Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Magne B6 Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-05</t>
+    <t xml:space="preserve">UK-STS-05</t>
   </si>
   <si>
-    <t>UK Pinosol Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Pinosol Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-06</t>
+    <t xml:space="preserve">UK-STS-06</t>
   </si>
   <si>
-    <t>Pinosol </t>
+    <t xml:space="preserve">Pinosol </t>
   </si>
   <si>
-    <t>C&amp;C</t>
+    <t xml:space="preserve">C&amp;C</t>
   </si>
   <si>
-    <t>UK Lasolvan Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Lasolvan Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-07</t>
+    <t xml:space="preserve">UK-STS-07</t>
   </si>
   <si>
-    <t>UK Essentiale Shelf Talker/Strip</t>
+    <t xml:space="preserve">UK Essentiale Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>UK-STS-08</t>
+    <t xml:space="preserve">UK-STS-08</t>
   </si>
   <si>
-    <t>Essentiale </t>
+    <t xml:space="preserve">Essentiale </t>
   </si>
   <si>
-    <t>UK NoSpa product dispenser</t>
+    <t xml:space="preserve">UK NoSpa product dispenser</t>
   </si>
   <si>
-    <t>UK-PD-01</t>
+    <t xml:space="preserve">UK-PD-01</t>
   </si>
   <si>
-    <t>UK NoSpa product poster with
+    <t xml:space="preserve">UK NoSpa product poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t>UK-PD-02</t>
+    <t xml:space="preserve">UK-PD-02</t>
   </si>
   <si>
-    <t>UK Essentiale Shelf Talker/Strip poster with
+    <t xml:space="preserve">UK Essentiale Shelf Talker/Strip poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t>UK-STS-09</t>
-  </si>
-  <si>
-    <t>UK Festal Shelf Talker/Strip poster with
+    <t xml:space="preserve">UK Festal Shelf Talker/Strip poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t>UK-STS-10</t>
-  </si>
-  <si>
-    <t>UK Enterogermina Shelf Talker/Strip poster with
+    <t xml:space="preserve">UK Enterogermina Shelf Talker/Strip poster with
 Shopper promo communication</t>
   </si>
   <si>
-    <t>UK-CC-02</t>
+    <t xml:space="preserve">UK-STS-01</t>
   </si>
   <si>
-    <t>Magne B7</t>
+    <t xml:space="preserve">Magne B7</t>
   </si>
   <si>
-    <t> No-spa tabs 40 mg №24</t>
+    <t xml:space="preserve"> No-spa tabs 40 mg №24</t>
   </si>
 </sst>
 </file>
@@ -531,14 +507,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0000"/>
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -659,13 +635,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1308,35 +1277,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1344,75 +1357,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="12" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1510,13 +1479,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9716599190283"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.9473684210526"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.2024291497976"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,17 +1749,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="21" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="51.0445344129555"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="14.9311740890688"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="16.6477732793522"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="21" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,7 +6285,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I2:J16"/>
+  <autoFilter ref="A2:H16"/>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
@@ -6345,14 +6314,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="21" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="44.0769230769231"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="21" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7046,17 +7015,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="21" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="21" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="64.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="17.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="21" width="12.3603238866397"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="21" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11382,22 +11351,21 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="77" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="24.9716599190283"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="77" width="14.9311740890688"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="77" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11732,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
         <v>22</v>
       </c>
@@ -11740,7 +11708,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D13" s="86" t="s">
         <v>104</v>
@@ -11761,15 +11729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>93</v>
@@ -11790,15 +11758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="86" t="s">
         <v>46</v>
@@ -11841,23 +11809,23 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="77" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="77" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="29.8704453441296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="51.0445344129555"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="17.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="77" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="77" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="93" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15108,7 +15076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="96" t="s">
         <v>15</v>
       </c>
@@ -15116,7 +15084,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="98" t="n">
-        <v>3582910071242</v>
+        <v>3587080002768</v>
       </c>
       <c r="D8" s="97" t="s">
         <v>49</v>
@@ -15311,7 +15279,7 @@
         <v>3582910019428</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="97" t="s">
         <v>60</v>
@@ -15332,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="96" t="s">
         <v>15</v>
       </c>
@@ -15340,7 +15308,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="98" t="n">
-        <v>3582910071464</v>
+        <v>3582910026334</v>
       </c>
       <c r="D15" s="97" t="s">
         <v>59</v>
@@ -15364,7 +15332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="96" t="s">
         <v>15</v>
       </c>
@@ -15372,7 +15340,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="98" t="n">
-        <v>5997086105055</v>
+        <v>5997086705055</v>
       </c>
       <c r="D16" s="97" t="s">
         <v>63</v>
@@ -15785,7 +15753,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="103" t="n">
         <v>3582910061557</v>
@@ -15813,7 +15781,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G25"/>
+  <autoFilter ref="A2:H25"/>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>

--- a/Projects/SANOFIUA/Data/Template.xlsx
+++ b/Projects/SANOFIUA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -231,32 +231,6 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Solomon, Bonver /AE/EXT:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">to confirm what skus are included on brand block</t>
         </r>
       </text>
     </comment>
@@ -555,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -686,7 +660,7 @@
     <t xml:space="preserve">Festal Neo 10 000  tabs №20</t>
   </si>
   <si>
-    <t xml:space="preserve">Festal </t>
+    <t xml:space="preserve">Festal</t>
   </si>
   <si>
     <t xml:space="preserve">Enterogermina oral susp. 5 ml, vial №10</t>
@@ -749,34 +723,10 @@
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina oral susp. 5 ml, vial №10, Enterogermina forte oral susp. 5 ml, vial №10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910022428, 3582910078357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magne-B6 tabs №50, Magne-B6 Antistress tabs #60, Magne-B6 oral sol. 10 ml, amp. №10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910071440, 3582910071464,3582910019428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-spa tabs 40 mg №24,  No-spa Comfort tabs 40 mg №24, No-spa forte tabs 80 mg №24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910061557, 3582910078326,3582910066958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan® strawb. syrup 100 ml (30 mg/ 5 ml), bottle №1,Lasolvan® woodb. syrup 100 ml (15 mg/ 5 ml), bottle №1, Lasolvan® MAX caps 75 mg №10, Lasolvan® woodb. syrup 200 ml (15 mg/ 5 ml), bottle №1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9006968005935, 9006968005911, 9006968010373, 9006968005928</t>
-  </si>
-  <si>
     <t xml:space="preserve">UK Enterogermina Shelf Talker/Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">UK-CC-01</t>
+    <t xml:space="preserve">UK-STS-01</t>
   </si>
   <si>
     <t xml:space="preserve">UK Maalox Shelf Talker/Strip</t>
@@ -807,12 +757,6 @@
   </si>
   <si>
     <t xml:space="preserve">UK-STS-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essentiale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DH</t>
   </si>
   <si>
     <t xml:space="preserve">UK NoSpa product dispenser</t>
@@ -866,9 +810,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lasolvan® woodb. syrup 200 ml (15 mg/ 5 ml), bottle №1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festal</t>
   </si>
   <si>
     <t xml:space="preserve"> No-spa tabs 40 mg №24</t>
@@ -886,7 +827,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1002,28 +943,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1062,6 +981,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1144,7 +1078,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1175,13 +1109,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top/>
       <bottom style="thin"/>
@@ -1189,16 +1116,9 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1261,7 +1181,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1386,119 +1306,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1506,23 +1398,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1542,7 +1434,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,8 +1522,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1885,7 +1777,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1901,7 +1793,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1910,7 +1802,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="14" width="13.0688259109312"/>
@@ -1930,7 +1822,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2234,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2359,7 +2251,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2369,12 +2261,10 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="27" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="27" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="27" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="28" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="28" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2385,7 +2275,7 @@
       </c>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2401,168 +2291,138 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2570,7 +2430,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2586,36 +2446,36 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="37" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="38" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="38" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="36" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="36" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="36" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2631,193 +2491,20 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="42" t="n">
-        <v>4030113617730</v>
-      </c>
-      <c r="F3" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="42" t="n">
-        <v>3582910080176</v>
-      </c>
-      <c r="F4" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
@@ -2840,22 +2527,22 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="49" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="51" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="51" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="51" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="41" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="41" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="41" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="43" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2864,387 +2551,387 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="54" t="s">
+      <c r="B3" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="55" t="n">
+      <c r="F3" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55" t="n">
+      <c r="F4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>77</v>
+      <c r="B5" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56" t="n">
+      <c r="F5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="B6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56" t="n">
+      <c r="F6" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="56" t="n">
+      <c r="F7" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="56" t="n">
+      <c r="B8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>87</v>
+      <c r="B9" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="56" t="n">
+      <c r="F9" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>89</v>
+      <c r="B10" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="56" t="n">
+      <c r="F10" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>84</v>
+      <c r="B11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="56" t="n">
+      <c r="F11" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="54" t="s">
+      <c r="B12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="56" t="n">
+      <c r="F12" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="B13" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="56" t="n">
+      <c r="F13" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="54" t="s">
+      <c r="B14" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="56" t="n">
+      <c r="F14" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,67 +2958,66 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="61" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="61" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="62" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="62" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="62" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="54" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="55" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="55" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="55" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="40" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -3340,27 +3026,27 @@
       <c r="C3" s="26" t="n">
         <v>4030113617730</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="67" t="n">
+      <c r="F3" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="67" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" s="67" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="67" t="n">
-        <v>6</v>
+      <c r="G3" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="60" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -3372,24 +3058,24 @@
       <c r="D4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="67" t="n">
+      <c r="F4" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="67" t="n">
+      <c r="G4" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="67" t="n">
+      <c r="H4" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="67" t="n">
+      <c r="I4" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -3401,24 +3087,24 @@
       <c r="D5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="67" t="n">
+      <c r="F5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -3430,28 +3116,28 @@
       <c r="D6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="67" t="n">
+      <c r="F6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="67" t="n">
+      <c r="H6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="67" t="n">
+      <c r="I6" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>3587080002751</v>
@@ -3459,24 +3145,24 @@
       <c r="D7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="67" t="n">
+      <c r="F7" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -3488,24 +3174,24 @@
       <c r="D8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="67" t="n">
+      <c r="F8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -3520,25 +3206,25 @@
       <c r="E9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="67" t="n">
+      <c r="F9" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="67" t="n">
+      <c r="G9" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="67" t="n">
+      <c r="H9" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="67" t="n">
+      <c r="I9" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>3582910019428</v>
@@ -3549,21 +3235,21 @@
       <c r="E10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="67" t="n">
+      <c r="F10" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -3578,50 +3264,50 @@
       <c r="E11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="67" t="n">
+      <c r="F11" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="67" t="n">
+      <c r="G11" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="67" t="n">
+      <c r="H11" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="67" t="n">
+      <c r="I11" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>3582910078326</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="59" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="67" t="n">
+      <c r="F12" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="67" t="n">
+      <c r="H12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="67" t="n">
+      <c r="I12" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -3630,27 +3316,27 @@
       <c r="C13" s="26" t="n">
         <v>3582910066958</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="59" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="67" t="n">
+      <c r="F13" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="67" t="n">
+      <c r="H13" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="67" t="n">
+      <c r="I13" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3659,27 +3345,27 @@
       <c r="C14" s="26" t="n">
         <v>3582910061557</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="59" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="67" t="n">
+      <c r="F14" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="67" t="n">
+      <c r="G14" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="67" t="n">
+      <c r="H14" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="67" t="n">
+      <c r="I14" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -3691,24 +3377,24 @@
       <c r="D15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="67" t="n">
+      <c r="F15" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3720,24 +3406,24 @@
       <c r="D16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="67" t="n">
-        <v>2</v>
+      <c r="F16" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -3749,117 +3435,117 @@
       <c r="D17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="67" t="n">
+      <c r="F17" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="67" t="n">
+      <c r="H17" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="67" t="n">
+      <c r="I17" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="69" t="n">
+      <c r="B18" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="62" t="n">
         <v>9006968005928</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="67" t="n">
+      <c r="F18" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="69" t="n">
+      <c r="C19" s="62" t="n">
         <v>3582910080176</v>
       </c>
-      <c r="D19" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="71" t="n">
+      <c r="F19" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="71" t="n">
+      <c r="I19" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="69" t="n">
+      <c r="C20" s="62" t="n">
         <v>3582910078357</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="71" t="n">
+      <c r="F20" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="I20" s="71" t="n">
+      <c r="I20" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="69" t="n">
+      <c r="C21" s="62" t="n">
         <v>5997086105055</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -3868,45 +3554,45 @@
       <c r="E21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="71" t="n">
+      <c r="F21" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="71" t="n">
+      <c r="I21" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="69" t="n">
+      <c r="B22" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="62" t="n">
         <v>3582910061557</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="71" t="n">
+      <c r="F22" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="71" t="n">
+      <c r="I22" s="64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3916,7 +3602,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
